--- a/data/Output/xlsx/nsga3/results_summer_nsga3.xlsx
+++ b/data/Output/xlsx/nsga3/results_summer_nsga3.xlsx
@@ -160,7 +160,7 @@
     <t>Li-ion</t>
   </si>
   <si>
-    <t>20-90</t>
+    <t>10-90</t>
   </si>
 </sst>
 </file>
@@ -615,7 +615,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.5905191609757674</v>
+        <v>0.3310681850842193</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -624,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.4989003130499755</v>
+        <v>0.3907957397618305</v>
       </c>
       <c r="K2" t="s">
         <v>47</v>
@@ -651,13 +651,13 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>-3.46132605085142</v>
+        <v>-2.711306125125395</v>
       </c>
       <c r="T2">
         <v>-0</v>
       </c>
       <c r="U2">
-        <v>3.46132605085142</v>
+        <v>2.711306125125395</v>
       </c>
       <c r="V2">
         <v>3.508510869565217</v>
@@ -674,7 +674,7 @@
         <v>106.1251601262854</v>
       </c>
       <c r="C3">
-        <v>42.6933697457429</v>
+        <v>46.44346937437302</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>-0.4453257018018213</v>
+        <v>-0.4386553094680828</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.001631527740288056</v>
+        <v>0.004410857879345747</v>
       </c>
       <c r="K3" t="s">
         <v>47</v>
@@ -722,13 +722,13 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-0.01537361864374662</v>
+        <v>-0.04156279127491515</v>
       </c>
       <c r="T3">
         <v>-0</v>
       </c>
       <c r="U3">
-        <v>0.01537361864374662</v>
+        <v>0.04156279127491515</v>
       </c>
       <c r="V3">
         <v>3.527606521739131</v>
@@ -745,7 +745,7 @@
         <v>119.3189063050656</v>
       </c>
       <c r="C4">
-        <v>42.61650165252416</v>
+        <v>46.23565541799844</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -757,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>-0.4735684614879013</v>
+        <v>-0.2845884640896029</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0112218904028569</v>
+        <v>0.08996355598548124</v>
       </c>
       <c r="K4" t="s">
         <v>47</v>
@@ -793,13 +793,13 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-0.09404955803203235</v>
+        <v>-0.7539757006778893</v>
       </c>
       <c r="T4">
         <v>-0</v>
       </c>
       <c r="U4">
-        <v>0.09404955803203235</v>
+        <v>0.7539757006778893</v>
       </c>
       <c r="V4">
         <v>3.495541304347826</v>
@@ -816,7 +816,7 @@
         <v>133.2452038018512</v>
       </c>
       <c r="C5">
-        <v>42.14625386236401</v>
+        <v>42.465776914609</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>-0.1908390234559421</v>
+        <v>0.4899266439970063</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1475912105388638</v>
+        <v>0.4312435719775923</v>
       </c>
       <c r="K5" t="s">
         <v>47</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-1.107666214825612</v>
+        <v>-3.236466001574767</v>
       </c>
       <c r="T5">
         <v>-0</v>
       </c>
       <c r="U5">
-        <v>1.107666214825612</v>
+        <v>3.236466001574767</v>
       </c>
       <c r="V5">
         <v>3.408865217391304</v>
@@ -887,28 +887,28 @@
         <v>150.7319573651624</v>
       </c>
       <c r="C6">
-        <v>36.60792278823594</v>
+        <v>26.28344690673516</v>
       </c>
       <c r="D6">
-        <v>-0.03772328477022002</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0.001886164238511001</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.5750059652000278</v>
+        <v>0.5002325218849063</v>
       </c>
       <c r="H6">
-        <v>0.005686104551658684</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.4963159960036603</v>
+        <v>0.4675296048522175</v>
       </c>
       <c r="K6" t="s">
         <v>47</v>
@@ -932,16 +932,16 @@
         <v>0</v>
       </c>
       <c r="R6">
-        <v>0.03772328477022002</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>-3.283861272876968</v>
+        <v>-3.09288391376456</v>
       </c>
       <c r="T6">
         <v>-0.008844565217391305</v>
       </c>
       <c r="U6">
-        <v>3.292705838094359</v>
+        <v>3.101728478981951</v>
       </c>
       <c r="V6">
         <v>3.437882608695652</v>
@@ -958,19 +958,19 @@
         <v>74.54327405841806</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>10.81902733791236</v>
       </c>
       <c r="D7">
-        <v>9.570888597260158</v>
+        <v>9.340383370407178</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0.4785444298630079</v>
+        <v>0.4670191685203589</v>
       </c>
       <c r="G7">
-        <v>-1.160887238904239</v>
+        <v>-1.158650565734943</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.01719770990696077</v>
+        <v>0.001878989917508583</v>
       </c>
       <c r="K7" t="s">
         <v>47</v>
@@ -994,10 +994,10 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.0274868303588007</v>
+        <v>0.2329878656023991</v>
       </c>
       <c r="P7">
-        <v>9.543401766901358</v>
+        <v>9.107395504804778</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>-0</v>
       </c>
       <c r="T7">
-        <v>-0.2307077348585906</v>
+        <v>-0.02520669961499218</v>
       </c>
       <c r="U7">
-        <v>0.2307077348585906</v>
+        <v>0.02520669961499218</v>
       </c>
       <c r="V7">
         <v>3.895791304347826</v>
@@ -1029,7 +1029,7 @@
         <v>100.4097194560142</v>
       </c>
       <c r="C8">
-        <v>67.8544429863008</v>
+        <v>57.52094418994825</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.5973292568571859</v>
+        <v>0.5352364612394265</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.5034832373438459</v>
+        <v>0.4776112391697795</v>
       </c>
       <c r="K8" t="s">
         <v>47</v>
@@ -1077,13 +1077,13 @@
         <v>0</v>
       </c>
       <c r="S8">
-        <v>-3.970593295276066</v>
+        <v>-3.712929014226063</v>
       </c>
       <c r="T8">
         <v>-1.043694565217391</v>
       </c>
       <c r="U8">
-        <v>5.014287860493457</v>
+        <v>4.756623579443454</v>
       </c>
       <c r="V8">
         <v>5.07114347826087</v>
@@ -1100,7 +1100,7 @@
         <v>114.0987568381507</v>
       </c>
       <c r="C9">
-        <v>48.00147650992046</v>
+        <v>38.95629911881794</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.6845719113754116</v>
+        <v>0.5005644645703703</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.5707907747375039</v>
+        <v>0.4941210052354034</v>
       </c>
       <c r="K9" t="s">
         <v>47</v>
@@ -1148,13 +1148,13 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <v>-2.486410534047166</v>
+        <v>-1.814450806993726</v>
       </c>
       <c r="T9">
         <v>-2.516192391304348</v>
       </c>
       <c r="U9">
-        <v>5.002602925351514</v>
+        <v>4.330643198298074</v>
       </c>
       <c r="V9">
         <v>5.00535652173913</v>
@@ -1171,19 +1171,19 @@
         <v>94.86764298385783</v>
       </c>
       <c r="C10">
-        <v>35.56942383968462</v>
+        <v>29.88404508384931</v>
       </c>
       <c r="D10">
-        <v>9.82933879070805</v>
+        <v>7.338478138992761</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>0.4914669395354025</v>
+        <v>0.3669239069496381</v>
       </c>
       <c r="G10">
-        <v>-0.7934802475515876</v>
+        <v>-0.4934254693374509</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3635157772538911</v>
+        <v>0.3772593467362063</v>
       </c>
       <c r="K10" t="s">
         <v>47</v>
@@ -1207,10 +1207,10 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.1471577810907538</v>
+        <v>0.002286789780748144</v>
       </c>
       <c r="P10">
-        <v>9.682181009617295</v>
+        <v>7.336191349212013</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -1222,10 +1222,10 @@
         <v>-0</v>
       </c>
       <c r="T10">
-        <v>-3.831820479778811</v>
+        <v>-3.976691471088817</v>
       </c>
       <c r="U10">
-        <v>3.831820479778811</v>
+        <v>3.976691471088817</v>
       </c>
       <c r="V10">
         <v>4.951523913043479</v>
@@ -1242,28 +1242,28 @@
         <v>142.7665324873374</v>
       </c>
       <c r="C11">
-        <v>84.71611779322488</v>
+        <v>66.57643577881312</v>
       </c>
       <c r="D11">
-        <v>-3.808173849233279</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>0.1904086924616639</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>1.448947978022565</v>
+        <v>0.8701940409209061</v>
       </c>
       <c r="H11">
-        <v>0.5436797755639916</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.7547768711536245</v>
+        <v>0.7401626371795966</v>
       </c>
       <c r="K11" t="s">
         <v>47</v>
@@ -1287,16 +1287,16 @@
         <v>0</v>
       </c>
       <c r="R11">
-        <v>3.808173849233279</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>-0.231062017093902</v>
+        <v>-0.1286974522381703</v>
       </c>
       <c r="T11">
         <v>-5.055729347826087</v>
       </c>
       <c r="U11">
-        <v>5.286791364919989</v>
+        <v>5.184426800064258</v>
       </c>
       <c r="V11">
         <v>5.2895</v>
@@ -1313,7 +1313,7 @@
         <v>130.3349085258269</v>
       </c>
       <c r="C12">
-        <v>64.51993846158898</v>
+        <v>65.93294851762226</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.410024024624909</v>
+        <v>1.373899287704804</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1334,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.178807473188439</v>
+        <v>1.163755499471729</v>
       </c>
       <c r="K12" t="s">
         <v>47</v>
@@ -1361,13 +1361,13 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>-3.347504742504715</v>
+        <v>-3.232017848878457</v>
       </c>
       <c r="T12">
         <v>-5.69694456521739</v>
       </c>
       <c r="U12">
-        <v>9.044449307722106</v>
+        <v>8.928962414095848</v>
       </c>
       <c r="V12">
         <v>9.073508695652174</v>
@@ -1384,7 +1384,7 @@
         <v>94.46085730755678</v>
       </c>
       <c r="C13">
-        <v>47.7824147490654</v>
+        <v>49.77285927322998</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1396,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.8713029189245921</v>
+        <v>0.8538164369887101</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1405,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.727675961221012</v>
+        <v>0.7203899270810613</v>
       </c>
       <c r="K13" t="s">
         <v>47</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>-1.524986214123652</v>
+        <v>-1.447853374684898</v>
       </c>
       <c r="T13">
         <v>-6.178479347826087</v>
       </c>
       <c r="U13">
-        <v>7.70346556194974</v>
+        <v>7.626332722510986</v>
       </c>
       <c r="V13">
         <v>7.7203</v>
@@ -1455,7 +1455,7 @@
         <v>112.4862112330598</v>
       </c>
       <c r="C14">
-        <v>40.15748367844714</v>
+        <v>42.53359239980548</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.031320056142458</v>
+        <v>0.9240469631224806</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.8596559845914178</v>
+        <v>0.8149588624997606</v>
       </c>
       <c r="K14" t="s">
         <v>47</v>
@@ -1503,13 +1503,13 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>-1.748878659718147</v>
+        <v>-1.351522205076348</v>
       </c>
       <c r="T14">
         <v>-5.893444565217392</v>
       </c>
       <c r="U14">
-        <v>7.642323224935539</v>
+        <v>7.24496677029374</v>
       </c>
       <c r="V14">
         <v>7.644302173913044</v>
@@ -1526,19 +1526,19 @@
         <v>83.37399895636226</v>
       </c>
       <c r="C15">
-        <v>31.4130903798564</v>
+        <v>35.77598137442374</v>
       </c>
       <c r="D15">
-        <v>9.755294753713248</v>
+        <v>5.094013230600527</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>0.4877647376856624</v>
+        <v>0.2547006615300264</v>
       </c>
       <c r="G15">
-        <v>-0.6449434521938899</v>
+        <v>-0.2062753852298168</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.4491430244115668</v>
+        <v>0.4260700660383173</v>
       </c>
       <c r="K15" t="s">
         <v>47</v>
@@ -1562,10 +1562,10 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04122666871128811</v>
+        <v>0.3179671233142383</v>
       </c>
       <c r="P15">
-        <v>9.714068085001959</v>
+        <v>4.776046107286289</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -1577,10 +1577,10 @@
         <v>-0</v>
       </c>
       <c r="T15">
-        <v>-5.387087461723494</v>
+        <v>-5.110347007120544</v>
       </c>
       <c r="U15">
-        <v>5.387087461723494</v>
+        <v>5.110347007120544</v>
       </c>
       <c r="V15">
         <v>7.506395652173913</v>
@@ -1597,28 +1597,28 @@
         <v>127.6562977853368</v>
       </c>
       <c r="C16">
-        <v>80.18956414842265</v>
+        <v>61.24604752742637</v>
       </c>
       <c r="D16">
-        <v>-4.136860592187642</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>0.2068430296093821</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>1.50030988017295</v>
+        <v>0.8402959774274468</v>
       </c>
       <c r="H16">
-        <v>0.5280963076527304</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.8121663287702443</v>
+        <v>0.7572006641482557</v>
       </c>
       <c r="K16" t="s">
         <v>47</v>
@@ -1642,16 +1642,16 @@
         <v>0</v>
       </c>
       <c r="R16">
-        <v>4.136860592187642</v>
+        <v>0</v>
       </c>
       <c r="S16">
-        <v>-1.751078526620578</v>
+        <v>-1.320503102018987</v>
       </c>
       <c r="T16">
         <v>-4.611054347826087</v>
       </c>
       <c r="U16">
-        <v>6.362132874446665</v>
+        <v>5.931557449845074</v>
       </c>
       <c r="V16">
         <v>6.377708695652173</v>
@@ -1668,19 +1668,19 @@
         <v>77.33234842569557</v>
       </c>
       <c r="C17">
-        <v>50.74986855438154</v>
+        <v>54.64353201733145</v>
       </c>
       <c r="D17">
-        <v>7.850026289123693</v>
+        <v>7.071293596533712</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>0.3925013144561846</v>
+        <v>0.3535646798266856</v>
       </c>
       <c r="G17">
-        <v>-0.5828141981144119</v>
+        <v>-0.5220206638698434</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1689,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2565851361723643</v>
+        <v>0.2470251867956563</v>
       </c>
       <c r="K17" t="s">
         <v>47</v>
@@ -1704,10 +1704,10 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.02254649935204078</v>
+        <v>0.1461681088249982</v>
       </c>
       <c r="P17">
-        <v>7.827479789771652</v>
+        <v>6.925125487708714</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -1719,10 +1719,10 @@
         <v>-0</v>
       </c>
       <c r="T17">
-        <v>-3.317953500647959</v>
+        <v>-3.194331891175002</v>
       </c>
       <c r="U17">
-        <v>3.317953500647959</v>
+        <v>3.194331891175002</v>
       </c>
       <c r="V17">
         <v>5.088832608695652</v>
@@ -1742,25 +1742,25 @@
         <v>90</v>
       </c>
       <c r="D18">
-        <v>-1.481911914784627</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>0.07409559573923136</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>1.02044073379297</v>
+        <v>0.6983767752636378</v>
       </c>
       <c r="H18">
-        <v>0.2071840681066948</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.6800535123115758</v>
+        <v>0.6321868913021437</v>
       </c>
       <c r="K18" t="s">
         <v>47</v>
@@ -1784,16 +1784,16 @@
         <v>0</v>
       </c>
       <c r="R18">
-        <v>1.481911914784627</v>
+        <v>0</v>
       </c>
       <c r="S18">
-        <v>-2.88860030553918</v>
+        <v>-2.546227860386551</v>
       </c>
       <c r="T18">
         <v>-1.975573913043479</v>
       </c>
       <c r="U18">
-        <v>4.864174218582659</v>
+        <v>4.52180177343003</v>
       </c>
       <c r="V18">
         <v>4.880908695652174</v>
@@ -1810,19 +1810,19 @@
         <v>94.82122737106674</v>
       </c>
       <c r="C19">
-        <v>68.14743889838097</v>
+        <v>77.26886069806724</v>
       </c>
       <c r="D19">
-        <v>4.339426001899245</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>0.2169713000949622</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>-1.016748301768879</v>
+        <v>-0.4759119603286534</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.06269339342499959</v>
+        <v>0.08387266747353597</v>
       </c>
       <c r="K19" t="s">
         <v>47</v>
@@ -1846,10 +1846,10 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.03302315915652698</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>4.306402842742718</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>-0</v>
+        <v>-0.1903368904413852</v>
       </c>
       <c r="T19">
-        <v>-0.6611746669304296</v>
+        <v>-0.6941978260869566</v>
       </c>
       <c r="U19">
-        <v>0.6611746669304296</v>
+        <v>0.8845347165283418</v>
       </c>
       <c r="V19">
         <v>5.951606521739131</v>
@@ -1881,7 +1881,7 @@
         <v>115.3177193050301</v>
       </c>
       <c r="C20">
-        <v>89.8445689078772</v>
+        <v>76.31717624586032</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1893,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.2922795521022454</v>
+        <v>0.2136311095257952</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1902,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.4887337811295992</v>
+        <v>0.4559635967227451</v>
       </c>
       <c r="K20" t="s">
         <v>47</v>
@@ -1929,13 +1929,13 @@
         <v>0</v>
       </c>
       <c r="S20">
-        <v>-4.073608600757701</v>
+        <v>-3.78943558203737</v>
       </c>
       <c r="T20">
         <v>-0.1645413043478261</v>
       </c>
       <c r="U20">
-        <v>4.238149905105526</v>
+        <v>3.953976886385196</v>
       </c>
       <c r="V20">
         <v>6.364167391304347</v>
@@ -1952,7 +1952,7 @@
         <v>104.9907459496491</v>
       </c>
       <c r="C21">
-        <v>69.47652590408869</v>
+        <v>57.36999833567346</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1964,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>-0.4333833498389781</v>
+        <v>-0.3989825004562371</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1322572262358626</v>
+        <v>0.1465909134786713</v>
       </c>
       <c r="K21" t="s">
         <v>47</v>
@@ -2000,13 +2000,13 @@
         <v>0</v>
       </c>
       <c r="S21">
-        <v>-1.259703653303785</v>
+        <v>-1.3962269927006</v>
       </c>
       <c r="T21">
         <v>-0</v>
       </c>
       <c r="U21">
-        <v>1.259703653303785</v>
+        <v>1.3962269927006</v>
       </c>
       <c r="V21">
         <v>5.959260869565217</v>
@@ -2023,7 +2023,7 @@
         <v>96.24046538329668</v>
       </c>
       <c r="C22">
-        <v>63.17800763756976</v>
+        <v>50.38886337217047</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -2035,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>-0.3613640842754947</v>
+        <v>-0.2591830216531984</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1330789583828359</v>
+        <v>0.175654401142126</v>
       </c>
       <c r="K22" t="s">
         <v>47</v>
@@ -2071,13 +2071,13 @@
         <v>0</v>
       </c>
       <c r="S22">
-        <v>-1.38277550771209</v>
+        <v>-1.825161593333403</v>
       </c>
       <c r="T22">
         <v>-0</v>
       </c>
       <c r="U22">
-        <v>1.38277550771209</v>
+        <v>1.825161593333403</v>
       </c>
       <c r="V22">
         <v>5.894554347826086</v>
@@ -2094,7 +2094,7 @@
         <v>129.2453153423419</v>
       </c>
       <c r="C23">
-        <v>56.26413009900931</v>
+        <v>41.26305540550345</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.2752741244746507</v>
+        <v>0.05152231526472395</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2115,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.4662792281850195</v>
+        <v>0.3730493076808835</v>
       </c>
       <c r="K23" t="s">
         <v>47</v>
@@ -2142,13 +2142,13 @@
         <v>0</v>
       </c>
       <c r="S23">
-        <v>-3.607706994640002</v>
+        <v>-2.886366184281104</v>
       </c>
       <c r="T23">
         <v>-0</v>
       </c>
       <c r="U23">
-        <v>3.607706994640002</v>
+        <v>2.886366184281104</v>
       </c>
       <c r="V23">
         <v>5.440532608695652</v>
@@ -2165,28 +2165,28 @@
         <v>134.6209201425763</v>
       </c>
       <c r="C24">
-        <v>38.22559512580931</v>
+        <v>26.83122448409793</v>
       </c>
       <c r="D24">
-        <v>-0.0453502980490379</v>
+        <v>-0.03264543190844549</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24">
-        <v>0.002267514902451895</v>
+        <v>0.001632271595422274</v>
       </c>
       <c r="G24">
-        <v>0.4630590357972709</v>
+        <v>0.3753520126481092</v>
       </c>
       <c r="H24">
-        <v>0.006105098852101565</v>
+        <v>0.004394758081966753</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.4846041783443989</v>
+        <v>0.4487722273531377</v>
       </c>
       <c r="K24" t="s">
         <v>47</v>
@@ -2210,16 +2210,16 @@
         <v>0</v>
       </c>
       <c r="R24">
-        <v>0.0453502980490379</v>
+        <v>0.03264543190844549</v>
       </c>
       <c r="S24">
-        <v>-3.599768727112822</v>
+        <v>-3.33359946491114</v>
       </c>
       <c r="T24">
         <v>-0</v>
       </c>
       <c r="U24">
-        <v>3.599768727112822</v>
+        <v>3.33359946491114</v>
       </c>
       <c r="V24">
         <v>4.370891304347826</v>
@@ -2236,7 +2236,7 @@
         <v>105.9716222151143</v>
       </c>
       <c r="C25">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D25">
         <v>0</v>
